--- a/Code/Results/Cases/Case_2_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.816837276290812</v>
+        <v>0.2886974440769166</v>
       </c>
       <c r="C2">
-        <v>0.1453077625107255</v>
+        <v>0.04414062284175202</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3267696173903758</v>
+        <v>0.1519482541152186</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.4751305511403814</v>
+        <v>0.6754222335128901</v>
       </c>
       <c r="H2">
-        <v>0.3711622106495014</v>
+        <v>0.7796758169544518</v>
       </c>
       <c r="I2">
-        <v>0.3231230327106331</v>
+        <v>0.6173599665478875</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9148158502228227</v>
+        <v>0.3061225245914443</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6042767728167036</v>
+        <v>0.2358896225223148</v>
       </c>
       <c r="N2">
-        <v>0.771074130675327</v>
+        <v>1.563560818350059</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7085469793851473</v>
+        <v>0.2572155069790654</v>
       </c>
       <c r="C3">
-        <v>0.1259321304283958</v>
+        <v>0.0384478235663579</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2837300804758982</v>
+        <v>0.1409603973209244</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.4556677975311061</v>
+        <v>0.6758928611237849</v>
       </c>
       <c r="H3">
-        <v>0.3692722508813659</v>
+        <v>0.7842871477837008</v>
       </c>
       <c r="I3">
-        <v>0.3231120478501595</v>
+        <v>0.6218221813652747</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7932653377610848</v>
+        <v>0.2706970287038075</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5229047027067963</v>
+        <v>0.2136452902220611</v>
       </c>
       <c r="N3">
-        <v>0.8164839745908949</v>
+        <v>1.581963963130753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6423341585443723</v>
+        <v>0.2379321969771127</v>
       </c>
       <c r="C4">
-        <v>0.1141214653892462</v>
+        <v>0.03494855867897684</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2577610370061265</v>
+        <v>0.1343108316449886</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.444963601747375</v>
+        <v>0.6766622837825338</v>
       </c>
       <c r="H4">
-        <v>0.3688478321251978</v>
+        <v>0.787488719127964</v>
       </c>
       <c r="I4">
-        <v>0.3238712410731956</v>
+        <v>0.6249077154588534</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.718990469403451</v>
+        <v>0.2489808821832753</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4734734102054148</v>
+        <v>0.2000854270991823</v>
       </c>
       <c r="N4">
-        <v>0.8456109051580594</v>
+        <v>1.593839392067274</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6154079153824341</v>
+        <v>0.230086112386374</v>
       </c>
       <c r="C5">
-        <v>0.1093261641706817</v>
+        <v>0.03352158333005661</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2472803165000883</v>
+        <v>0.1316252766390349</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.440895811313851</v>
+        <v>0.6770963932726488</v>
       </c>
       <c r="H5">
-        <v>0.3688514480395497</v>
+        <v>0.7888864510664391</v>
       </c>
       <c r="I5">
-        <v>0.3243639697165435</v>
+        <v>0.6262519404952585</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.688795320148273</v>
+        <v>0.240140444407885</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.45344552703056</v>
+        <v>0.194584264002934</v>
       </c>
       <c r="N5">
-        <v>0.8577844647111057</v>
+        <v>1.598823430780103</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6109398273207489</v>
+        <v>0.2287840100629239</v>
       </c>
       <c r="C6">
-        <v>0.1085308613828744</v>
+        <v>0.03328457425298836</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2455457849043512</v>
+        <v>0.1311807978797219</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.4402375928433386</v>
+        <v>0.6771757512371153</v>
       </c>
       <c r="H6">
-        <v>0.3688624730905801</v>
+        <v>0.7891241636719499</v>
       </c>
       <c r="I6">
-        <v>0.3244565999848206</v>
+        <v>0.6264803906822607</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6837853243806506</v>
+        <v>0.2386730502119292</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4501264022848162</v>
+        <v>0.1936722820280039</v>
       </c>
       <c r="N6">
-        <v>0.8598239884829244</v>
+        <v>1.599659763832966</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6419708127078536</v>
+        <v>0.2378263329046888</v>
       </c>
       <c r="C7">
-        <v>0.1140567279557558</v>
+        <v>0.03492931805888588</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2576192946395963</v>
+        <v>0.1342745156019802</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4449075750927136</v>
+        <v>0.6766676505118738</v>
       </c>
       <c r="H7">
-        <v>0.3688471768616921</v>
+        <v>0.7875071926429058</v>
       </c>
       <c r="I7">
-        <v>0.3238771556573745</v>
+        <v>0.6249254926347483</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7185829759947495</v>
+        <v>0.2488616199587739</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4732028612685326</v>
+        <v>0.2000111370697297</v>
       </c>
       <c r="N7">
-        <v>0.8457738622617619</v>
+        <v>1.593906022774105</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7794324874039091</v>
+        <v>0.277832926568351</v>
       </c>
       <c r="C8">
-        <v>0.1386066942246487</v>
+        <v>0.04217853062898769</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3118264729522195</v>
+        <v>0.1481393799301998</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.4681493685008746</v>
+        <v>0.6754846342804939</v>
       </c>
       <c r="H8">
-        <v>0.3703525168362489</v>
+        <v>0.7811889550514479</v>
       </c>
       <c r="I8">
-        <v>0.3229545471406112</v>
+        <v>0.6188267311912874</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8728201294002247</v>
+        <v>0.2939006084600067</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5760982505233159</v>
+        <v>0.2281993099955386</v>
       </c>
       <c r="N8">
-        <v>0.7864674610862927</v>
+        <v>1.569786657700623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.051878987490795</v>
+        <v>0.3566485940698954</v>
       </c>
       <c r="C9">
-        <v>0.1876276027485062</v>
+        <v>0.05636538753894627</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4223964605779358</v>
+        <v>0.1761086805017982</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.5245311458438664</v>
+        <v>0.6769892239262276</v>
       </c>
       <c r="H9">
-        <v>0.3795541548512205</v>
+        <v>0.7717376597618397</v>
       </c>
       <c r="I9">
-        <v>0.327666780708384</v>
+        <v>0.6096144253904896</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.178972800248005</v>
+        <v>0.3824971639359376</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7829653334132516</v>
+        <v>0.2842638681085887</v>
       </c>
       <c r="N9">
-        <v>0.6804754165546925</v>
+        <v>1.527060864639921</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.254835935524625</v>
+        <v>0.4147709847960073</v>
       </c>
       <c r="C10">
-        <v>0.2244758516257406</v>
+        <v>0.06677442317825921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5072039660619652</v>
+        <v>0.1971501285520603</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.5739127926147347</v>
+        <v>0.6804445448525911</v>
       </c>
       <c r="H10">
-        <v>0.3907361861040499</v>
+        <v>0.7665878328729434</v>
       </c>
       <c r="I10">
-        <v>0.3357656609384776</v>
+        <v>0.6045272546947373</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.407454361368906</v>
+        <v>0.4477574926536647</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.939373039310162</v>
+        <v>0.3259501322296501</v>
       </c>
       <c r="N10">
-        <v>0.6095199662249442</v>
+        <v>1.498461026159147</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.348022602862272</v>
+        <v>0.4412587576086366</v>
       </c>
       <c r="C11">
-        <v>0.241492596861292</v>
+        <v>0.0715075314905107</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5467978569815202</v>
+        <v>0.2068330696744525</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.5984375074078798</v>
+        <v>0.6825307778574938</v>
       </c>
       <c r="H11">
-        <v>0.3969313882731313</v>
+        <v>0.7646352015366915</v>
       </c>
       <c r="I11">
-        <v>0.3406165214938852</v>
+        <v>0.6025793953960346</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.512483479701757</v>
+        <v>0.4774832376856466</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.011809258791409</v>
+        <v>0.3450254989406005</v>
       </c>
       <c r="N11">
-        <v>0.5788956481507093</v>
+        <v>1.486056970684935</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.383456097506865</v>
+        <v>0.4512956450120669</v>
       </c>
       <c r="C12">
-        <v>0.2479795835655096</v>
+        <v>0.07329959041565814</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5619586161999948</v>
+        <v>0.2105159747467269</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.6080509053987271</v>
+        <v>0.6833950540473239</v>
       </c>
       <c r="H12">
-        <v>0.399450249997102</v>
+        <v>0.7639519254378371</v>
       </c>
       <c r="I12">
-        <v>0.3426357162260345</v>
+        <v>0.6018945795349495</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.552440631855347</v>
+        <v>0.4887450317470723</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.039453078337637</v>
+        <v>0.3522651543673945</v>
       </c>
       <c r="N12">
-        <v>0.5675509757096773</v>
+        <v>1.481447149174096</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.375818009311956</v>
+        <v>0.4491337355565577</v>
       </c>
       <c r="C13">
-        <v>0.2465804666719862</v>
+        <v>0.07291364994452465</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5586856656470971</v>
+        <v>0.2097220720091855</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.6059654643086958</v>
+        <v>0.6832056090234317</v>
       </c>
       <c r="H13">
-        <v>0.3988998526222503</v>
+        <v>0.7640965833218161</v>
       </c>
       <c r="I13">
-        <v>0.3421924955724904</v>
+        <v>0.6020397168447715</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.543826450196576</v>
+        <v>0.4863193709475979</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.033489490047195</v>
+        <v>0.3507052415090683</v>
       </c>
       <c r="N13">
-        <v>0.5699828016395312</v>
+        <v>1.482436070312067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.350934684701144</v>
+        <v>0.4420843689842968</v>
       </c>
       <c r="C14">
-        <v>0.2420253814359938</v>
+        <v>0.07165497046445068</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5480416561988051</v>
+        <v>0.2071357388942445</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.5992216841529654</v>
+        <v>0.6826003922985535</v>
       </c>
       <c r="H14">
-        <v>0.3971350706393366</v>
+        <v>0.7645778624976316</v>
       </c>
       <c r="I14">
-        <v>0.3407789012868321</v>
+        <v>0.602521996380581</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.515766904416978</v>
+        <v>0.4784096473989905</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.014079072720641</v>
+        <v>0.3456207838746934</v>
       </c>
       <c r="N14">
-        <v>0.5779571766925571</v>
+        <v>1.485675966837041</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335712591674195</v>
+        <v>0.4377672714830396</v>
       </c>
       <c r="C15">
-        <v>0.2392410795317943</v>
+        <v>0.0708839589290875</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5415443676903848</v>
+        <v>0.2055536493074683</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.5951343695958258</v>
+        <v>0.6822393598831695</v>
       </c>
       <c r="H15">
-        <v>0.3960770233382647</v>
+        <v>0.7648799729911531</v>
       </c>
       <c r="I15">
-        <v>0.3399372233511073</v>
+        <v>0.6028242857085928</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.498604571889189</v>
+        <v>0.4735653965040285</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.002218376861734</v>
+        <v>0.3425085234528993</v>
       </c>
       <c r="N15">
-        <v>0.5828749860548719</v>
+        <v>1.487671874142858</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.24876512144661</v>
+        <v>0.4130408785885606</v>
       </c>
       <c r="C16">
-        <v>0.2233694306199396</v>
+        <v>0.06646506486497117</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5046386226242419</v>
+        <v>0.1965195789283243</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.5723540279689843</v>
+        <v>0.6803185807841885</v>
       </c>
       <c r="H16">
-        <v>0.3903547466994439</v>
+        <v>0.7667232953510421</v>
       </c>
       <c r="I16">
-        <v>0.3354733358093398</v>
+        <v>0.6046619334045715</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.400614762236273</v>
+        <v>0.4458155997344022</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9346674462271807</v>
+        <v>0.3247057769464874</v>
       </c>
       <c r="N16">
-        <v>0.6115558090429083</v>
+        <v>1.499283871403966</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.195661140772273</v>
+        <v>0.3978840146791924</v>
       </c>
       <c r="C17">
-        <v>0.213702293722676</v>
+        <v>0.06375371702860377</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.482272696170007</v>
+        <v>0.1910060705840948</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.5589274700676867</v>
+        <v>0.6792722033668639</v>
       </c>
       <c r="H17">
-        <v>0.3871374575826252</v>
+        <v>0.7679540535172578</v>
       </c>
       <c r="I17">
-        <v>0.3330436528586844</v>
+        <v>0.6058831791640458</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.340799929133624</v>
+        <v>0.4288016895245619</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.893576196540991</v>
+        <v>0.3138131532900559</v>
       </c>
       <c r="N17">
-        <v>0.6295839181367988</v>
+        <v>1.506562819680811</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.1651967124983</v>
+        <v>0.3891706863944933</v>
       </c>
       <c r="C18">
-        <v>0.2081655217904199</v>
+        <v>0.06219403048230276</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4695024995995212</v>
+        <v>0.1878452891578632</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.5513968943598684</v>
+        <v>0.6787187538325128</v>
       </c>
       <c r="H18">
-        <v>0.3853904187926105</v>
+        <v>0.7686986631747885</v>
       </c>
       <c r="I18">
-        <v>0.3317550367452853</v>
+        <v>0.6066200800052002</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.306496969380618</v>
+        <v>0.419019375694802</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8700607230977155</v>
+        <v>0.307558546704243</v>
       </c>
       <c r="N18">
-        <v>0.6401079384508428</v>
+        <v>1.510806522494201</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.154895007601795</v>
+        <v>0.3862212850929723</v>
       </c>
       <c r="C19">
-        <v>0.2062947137430626</v>
+        <v>0.06166591391493625</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4651942666839091</v>
+        <v>0.1867768899731104</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.5488792746734958</v>
+        <v>0.6785396689013368</v>
       </c>
       <c r="H19">
-        <v>0.3848162782472855</v>
+        <v>0.7689570785763209</v>
       </c>
       <c r="I19">
-        <v>0.3313370092131791</v>
+        <v>0.6068754990302345</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.294899102429724</v>
+        <v>0.4157078842240765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8621184075033455</v>
+        <v>0.3054426516602717</v>
       </c>
       <c r="N19">
-        <v>0.6436973489927418</v>
+        <v>1.51225315992234</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.20130576083028</v>
+        <v>0.3994970252890084</v>
       </c>
       <c r="C20">
-        <v>0.2147288982465767</v>
+        <v>0.06404236423259135</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4846436992794168</v>
+        <v>0.1915919106414776</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.5603366661440106</v>
+        <v>0.6793785807592343</v>
       </c>
       <c r="H20">
-        <v>0.3874691416020113</v>
+        <v>0.7678192374589088</v>
       </c>
       <c r="I20">
-        <v>0.3332909273705553</v>
+        <v>0.6057496068177031</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.347156677550714</v>
+        <v>0.4306124745735929</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8979378995969682</v>
+        <v>0.3149715997647036</v>
       </c>
       <c r="N20">
-        <v>0.6276486814677202</v>
+        <v>1.50578205818187</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.358239380948106</v>
+        <v>0.4441547636695873</v>
       </c>
       <c r="C21">
-        <v>0.2433620951020004</v>
+        <v>0.07202468218457625</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5511633348448157</v>
+        <v>0.2078949666627707</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.6011933845616539</v>
+        <v>0.6827761412249771</v>
       </c>
       <c r="H21">
-        <v>0.3976486250736286</v>
+        <v>0.7644349749951687</v>
       </c>
       <c r="I21">
-        <v>0.341189039535557</v>
+        <v>0.6023789053591955</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.524003420489635</v>
+        <v>0.4807327829884969</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.019774336993187</v>
+        <v>0.347113771015124</v>
       </c>
       <c r="N21">
-        <v>0.5756079478845049</v>
+        <v>1.484721959414914</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.461665544496299</v>
+        <v>0.4733791729411507</v>
       </c>
       <c r="C22">
-        <v>0.2623303316660071</v>
+        <v>0.07724004608712676</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5956250291943519</v>
+        <v>0.2186443960874129</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.6298140685310472</v>
+        <v>0.6854296547511893</v>
       </c>
       <c r="H22">
-        <v>0.4053162380769635</v>
+        <v>0.7625504341119296</v>
       </c>
       <c r="I22">
-        <v>0.3474209962201584</v>
+        <v>0.6004837496867594</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.640675483346342</v>
+        <v>0.513520082653713</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.100662998231684</v>
+        <v>0.3682151795337703</v>
       </c>
       <c r="N22">
-        <v>0.5430732178265494</v>
+        <v>1.471467041918403</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.40637851999719</v>
+        <v>0.4577781790568736</v>
       </c>
       <c r="C23">
-        <v>0.2521809905629482</v>
+        <v>0.07445664163880394</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5717970092534514</v>
+        <v>0.2128985117975333</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.6143525194099198</v>
+        <v>0.6839737060122815</v>
       </c>
       <c r="H23">
-        <v>0.4011262841365522</v>
+        <v>0.7635262856418024</v>
       </c>
       <c r="I23">
-        <v>0.3439918554748047</v>
+        <v>0.6014670271554934</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.578295581264712</v>
+        <v>0.4960181451171479</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.057365519720598</v>
+        <v>0.3569442639856248</v>
       </c>
       <c r="N23">
-        <v>0.5602974396464866</v>
+        <v>1.478494806494691</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.198753624921096</v>
+        <v>0.3987677814420181</v>
       </c>
       <c r="C24">
-        <v>0.2142647054377136</v>
+        <v>0.06391186962643758</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4835714954274337</v>
+        <v>0.1913270243118532</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.5596989836094224</v>
+        <v>0.6793303376481816</v>
       </c>
       <c r="H24">
-        <v>0.3873188686129367</v>
+        <v>0.7678800724518737</v>
       </c>
       <c r="I24">
-        <v>0.3331787985006116</v>
+        <v>0.6058098865118069</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.344282527718775</v>
+        <v>0.4297938210986842</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8959656380552445</v>
+        <v>0.3144478421167349</v>
       </c>
       <c r="N24">
-        <v>0.6285231064742813</v>
+        <v>1.506134856869513</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9777642786887384</v>
+        <v>0.3352885085284072</v>
       </c>
       <c r="C25">
-        <v>0.1742428920217662</v>
+        <v>0.05253018924254604</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3919319891524395</v>
+        <v>0.1684569799475355</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.5079862864126881</v>
+        <v>0.6761708571439584</v>
       </c>
       <c r="H25">
-        <v>0.3763354344980741</v>
+        <v>0.7739796178343283</v>
       </c>
       <c r="I25">
-        <v>0.3256285093413034</v>
+        <v>0.6118118320530037</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.095626754047544</v>
+        <v>0.3584999179147133</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7263274782813056</v>
+        <v>0.2690110002537125</v>
       </c>
       <c r="N25">
-        <v>0.7079831463338451</v>
+        <v>1.538129492881605</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2886974440769166</v>
+        <v>0.8168372762909257</v>
       </c>
       <c r="C2">
-        <v>0.04414062284175202</v>
+        <v>0.1453077625109529</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1519482541152186</v>
+        <v>0.3267696173903971</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6754222335128901</v>
+        <v>0.4751305511404098</v>
       </c>
       <c r="H2">
-        <v>0.7796758169544518</v>
+        <v>0.3711622106494872</v>
       </c>
       <c r="I2">
-        <v>0.6173599665478875</v>
+        <v>0.3231230327106296</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3061225245914443</v>
+        <v>0.9148158502228227</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2358896225223148</v>
+        <v>0.6042767728167107</v>
       </c>
       <c r="N2">
-        <v>1.563560818350059</v>
+        <v>0.771074130675256</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2572155069790654</v>
+        <v>0.7085469793851473</v>
       </c>
       <c r="C3">
-        <v>0.0384478235663579</v>
+        <v>0.1259321304281542</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1409603973209244</v>
+        <v>0.2837300804759124</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.6758928611237849</v>
+        <v>0.4556677975311203</v>
       </c>
       <c r="H3">
-        <v>0.7842871477837008</v>
+        <v>0.3692722508813659</v>
       </c>
       <c r="I3">
-        <v>0.6218221813652747</v>
+        <v>0.3231120478501595</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2706970287038075</v>
+        <v>0.7932653377610563</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2136452902220611</v>
+        <v>0.5229047027068106</v>
       </c>
       <c r="N3">
-        <v>1.581963963130753</v>
+        <v>0.8164839745908825</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2379321969771127</v>
+        <v>0.642334158544287</v>
       </c>
       <c r="C4">
-        <v>0.03494855867897684</v>
+        <v>0.114121465388763</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1343108316449886</v>
+        <v>0.2577610370061052</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6766622837825338</v>
+        <v>0.4449636017474035</v>
       </c>
       <c r="H4">
-        <v>0.787488719127964</v>
+        <v>0.3688478321250699</v>
       </c>
       <c r="I4">
-        <v>0.6249077154588534</v>
+        <v>0.3238712410731921</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2489808821832753</v>
+        <v>0.7189904694036358</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2000854270991823</v>
+        <v>0.4734734102054077</v>
       </c>
       <c r="N4">
-        <v>1.593839392067274</v>
+        <v>0.8456109051580345</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.230086112386374</v>
+        <v>0.6154079153821215</v>
       </c>
       <c r="C5">
-        <v>0.03352158333005661</v>
+        <v>0.109326164170426</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1316252766390349</v>
+        <v>0.2472803165000883</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.6770963932726488</v>
+        <v>0.4408958113137871</v>
       </c>
       <c r="H5">
-        <v>0.7888864510664391</v>
+        <v>0.3688514480395497</v>
       </c>
       <c r="I5">
-        <v>0.6262519404952585</v>
+        <v>0.3243639697165435</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.240140444407885</v>
+        <v>0.688795320148273</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.194584264002934</v>
+        <v>0.4534455270305671</v>
       </c>
       <c r="N5">
-        <v>1.598823430780103</v>
+        <v>0.8577844647111093</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2287840100629239</v>
+        <v>0.6109398273207489</v>
       </c>
       <c r="C6">
-        <v>0.03328457425298836</v>
+        <v>0.1085308613832012</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1311807978797219</v>
+        <v>0.2455457849043796</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.6771757512371153</v>
+        <v>0.4402375928433244</v>
       </c>
       <c r="H6">
-        <v>0.7891241636719499</v>
+        <v>0.3688624730905801</v>
       </c>
       <c r="I6">
-        <v>0.6264803906822607</v>
+        <v>0.324456599984817</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2386730502119292</v>
+        <v>0.6837853243806222</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1936722820280039</v>
+        <v>0.4501264022848304</v>
       </c>
       <c r="N6">
-        <v>1.599659763832966</v>
+        <v>0.8598239884829226</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2378263329046888</v>
+        <v>0.6419708127077683</v>
       </c>
       <c r="C7">
-        <v>0.03492931805888588</v>
+        <v>0.1140567279558127</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1342745156019802</v>
+        <v>0.2576192946395892</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6766676505118738</v>
+        <v>0.4449075750928557</v>
       </c>
       <c r="H7">
-        <v>0.7875071926429058</v>
+        <v>0.3688471768616921</v>
       </c>
       <c r="I7">
-        <v>0.6249254926347483</v>
+        <v>0.3238771556573639</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2488616199587739</v>
+        <v>0.7185829759947779</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2000111370697297</v>
+        <v>0.4732028612685113</v>
       </c>
       <c r="N7">
-        <v>1.593906022774105</v>
+        <v>0.8457738622617512</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.277832926568351</v>
+        <v>0.7794324874039376</v>
       </c>
       <c r="C8">
-        <v>0.04217853062898769</v>
+        <v>0.1386066942247908</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1481393799301998</v>
+        <v>0.3118264729522409</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.6754846342804939</v>
+        <v>0.4681493685009315</v>
       </c>
       <c r="H8">
-        <v>0.7811889550514479</v>
+        <v>0.3703525168362489</v>
       </c>
       <c r="I8">
-        <v>0.6188267311912874</v>
+        <v>0.3229545471406077</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2939006084600067</v>
+        <v>0.8728201294001963</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2281993099955386</v>
+        <v>0.576098250523323</v>
       </c>
       <c r="N8">
-        <v>1.569786657700623</v>
+        <v>0.7864674610863496</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3566485940698954</v>
+        <v>1.051878987490909</v>
       </c>
       <c r="C9">
-        <v>0.05636538753894627</v>
+        <v>0.187627602748492</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1761086805017982</v>
+        <v>0.4223964605779571</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.6769892239262276</v>
+        <v>0.5245311458438664</v>
       </c>
       <c r="H9">
-        <v>0.7717376597618397</v>
+        <v>0.3795541548512205</v>
       </c>
       <c r="I9">
-        <v>0.6096144253904896</v>
+        <v>0.3276667807083697</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3824971639359376</v>
+        <v>1.178972800247948</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2842638681085887</v>
+        <v>0.7829653334132516</v>
       </c>
       <c r="N9">
-        <v>1.527060864639921</v>
+        <v>0.6804754165546836</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4147709847960073</v>
+        <v>1.254835935524568</v>
       </c>
       <c r="C10">
-        <v>0.06677442317825921</v>
+        <v>0.2244758516252858</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1971501285520603</v>
+        <v>0.5072039660619865</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6804445448525911</v>
+        <v>0.5739127926147063</v>
       </c>
       <c r="H10">
-        <v>0.7665878328729434</v>
+        <v>0.3907361861040499</v>
       </c>
       <c r="I10">
-        <v>0.6045272546947373</v>
+        <v>0.3357656609384705</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4477574926536647</v>
+        <v>1.407454361368735</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3259501322296501</v>
+        <v>0.939373039310162</v>
       </c>
       <c r="N10">
-        <v>1.498461026159147</v>
+        <v>0.6095199662249833</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4412587576086366</v>
+        <v>1.348022602862272</v>
       </c>
       <c r="C11">
-        <v>0.0715075314905107</v>
+        <v>0.2414925968615194</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2068330696744525</v>
+        <v>0.5467978569815202</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6825307778574938</v>
+        <v>0.598437507407894</v>
       </c>
       <c r="H11">
-        <v>0.7646352015366915</v>
+        <v>0.3969313882730177</v>
       </c>
       <c r="I11">
-        <v>0.6025793953960346</v>
+        <v>0.3406165214938994</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4774832376856466</v>
+        <v>1.512483479701643</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3450254989406005</v>
+        <v>1.011809258791416</v>
       </c>
       <c r="N11">
-        <v>1.486056970684935</v>
+        <v>0.5788956481507022</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4512956450120669</v>
+        <v>1.383456097506723</v>
       </c>
       <c r="C12">
-        <v>0.07329959041565814</v>
+        <v>0.2479795835656518</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2105159747467269</v>
+        <v>0.5619586162000445</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.6833950540473239</v>
+        <v>0.6080509053987981</v>
       </c>
       <c r="H12">
-        <v>0.7639519254378371</v>
+        <v>0.3994502499970025</v>
       </c>
       <c r="I12">
-        <v>0.6018945795349495</v>
+        <v>0.3426357162260345</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4887450317470723</v>
+        <v>1.552440631855404</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3522651543673945</v>
+        <v>1.03945307833763</v>
       </c>
       <c r="N12">
-        <v>1.481447149174096</v>
+        <v>0.5675509757096275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4491337355565577</v>
+        <v>1.375818009311843</v>
       </c>
       <c r="C13">
-        <v>0.07291364994452465</v>
+        <v>0.2465804666723415</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2097220720091855</v>
+        <v>0.5586856656471184</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.6832056090234317</v>
+        <v>0.6059654643086247</v>
       </c>
       <c r="H13">
-        <v>0.7640965833218161</v>
+        <v>0.3988998526223639</v>
       </c>
       <c r="I13">
-        <v>0.6020397168447715</v>
+        <v>0.3421924955724762</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4863193709475979</v>
+        <v>1.543826450196576</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3507052415090683</v>
+        <v>1.033489490047195</v>
       </c>
       <c r="N13">
-        <v>1.482436070312067</v>
+        <v>0.5699828016395294</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4420843689842968</v>
+        <v>1.350934684701144</v>
       </c>
       <c r="C14">
-        <v>0.07165497046445068</v>
+        <v>0.2420253814358801</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2071357388942445</v>
+        <v>0.5480416561987838</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6826003922985535</v>
+        <v>0.599221684153008</v>
       </c>
       <c r="H14">
-        <v>0.7645778624976316</v>
+        <v>0.3971350706393508</v>
       </c>
       <c r="I14">
-        <v>0.602521996380581</v>
+        <v>0.3407789012868321</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4784096473989905</v>
+        <v>1.51576690441695</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3456207838746934</v>
+        <v>1.014079072720648</v>
       </c>
       <c r="N14">
-        <v>1.485675966837041</v>
+        <v>0.5779571766925571</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4377672714830396</v>
+        <v>1.335712591674138</v>
       </c>
       <c r="C15">
-        <v>0.0708839589290875</v>
+        <v>0.239241079531439</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2055536493074683</v>
+        <v>0.5415443676903209</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.6822393598831695</v>
+        <v>0.5951343695958684</v>
       </c>
       <c r="H15">
-        <v>0.7648799729911531</v>
+        <v>0.3960770233382789</v>
       </c>
       <c r="I15">
-        <v>0.6028242857085928</v>
+        <v>0.3399372233511428</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4735653965040285</v>
+        <v>1.498604571889132</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3425085234528993</v>
+        <v>1.002218376861734</v>
       </c>
       <c r="N15">
-        <v>1.487671874142858</v>
+        <v>0.5828749860548861</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4130408785885606</v>
+        <v>1.24876512144678</v>
       </c>
       <c r="C16">
-        <v>0.06646506486497117</v>
+        <v>0.2233694306195559</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1965195789283243</v>
+        <v>0.5046386226242419</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6803185807841885</v>
+        <v>0.5723540279689558</v>
       </c>
       <c r="H16">
-        <v>0.7667232953510421</v>
+        <v>0.3903547466994297</v>
       </c>
       <c r="I16">
-        <v>0.6046619334045715</v>
+        <v>0.3354733358093398</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4458155997344022</v>
+        <v>1.400614762236302</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3247057769464874</v>
+        <v>0.9346674462271949</v>
       </c>
       <c r="N16">
-        <v>1.499283871403966</v>
+        <v>0.6115558090429651</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3978840146791924</v>
+        <v>1.19566114077233</v>
       </c>
       <c r="C17">
-        <v>0.06375371702860377</v>
+        <v>0.2137022937222071</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1910060705840948</v>
+        <v>0.4822726961699786</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.6792722033668639</v>
+        <v>0.5589274700676725</v>
       </c>
       <c r="H17">
-        <v>0.7679540535172578</v>
+        <v>0.3871374575826394</v>
       </c>
       <c r="I17">
-        <v>0.6058831791640458</v>
+        <v>0.3330436528586915</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4288016895245619</v>
+        <v>1.340799929133624</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3138131532900559</v>
+        <v>0.893576196540991</v>
       </c>
       <c r="N17">
-        <v>1.506562819680811</v>
+        <v>0.6295839181368112</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3891706863944933</v>
+        <v>1.165196712498272</v>
       </c>
       <c r="C18">
-        <v>0.06219403048230276</v>
+        <v>0.2081655217903631</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1878452891578632</v>
+        <v>0.4695024995995283</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6787187538325128</v>
+        <v>0.5513968943598115</v>
       </c>
       <c r="H18">
-        <v>0.7686986631747885</v>
+        <v>0.3853904187924968</v>
       </c>
       <c r="I18">
-        <v>0.6066200800052002</v>
+        <v>0.3317550367452924</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.419019375694802</v>
+        <v>1.306496969380731</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.307558546704243</v>
+        <v>0.8700607230977297</v>
       </c>
       <c r="N18">
-        <v>1.510806522494201</v>
+        <v>0.6401079384508446</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3862212850929723</v>
+        <v>1.154895007601709</v>
       </c>
       <c r="C19">
-        <v>0.06166591391493625</v>
+        <v>0.2062947137432758</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1867768899731104</v>
+        <v>0.465194266683902</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.6785396689013368</v>
+        <v>0.5488792746734958</v>
       </c>
       <c r="H19">
-        <v>0.7689570785763209</v>
+        <v>0.3848162782472713</v>
       </c>
       <c r="I19">
-        <v>0.6068754990302345</v>
+        <v>0.3313370092131827</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4157078842240765</v>
+        <v>1.294899102429753</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3054426516602717</v>
+        <v>0.8621184075033526</v>
       </c>
       <c r="N19">
-        <v>1.51225315992234</v>
+        <v>0.6436973489927258</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3994970252890084</v>
+        <v>1.201305760830337</v>
       </c>
       <c r="C20">
-        <v>0.06404236423259135</v>
+        <v>0.2147288982465625</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1915919106414776</v>
+        <v>0.4846436992794168</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6793785807592343</v>
+        <v>0.5603366661439537</v>
       </c>
       <c r="H20">
-        <v>0.7678192374589088</v>
+        <v>0.3874691416020255</v>
       </c>
       <c r="I20">
-        <v>0.6057496068177031</v>
+        <v>0.3332909273705766</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4306124745735929</v>
+        <v>1.347156677550714</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3149715997647036</v>
+        <v>0.8979378995969824</v>
       </c>
       <c r="N20">
-        <v>1.50578205818187</v>
+        <v>0.6276486814677273</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4441547636695873</v>
+        <v>1.358239380948135</v>
       </c>
       <c r="C21">
-        <v>0.07202468218457625</v>
+        <v>0.243362095102313</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2078949666627707</v>
+        <v>0.5511633348448157</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6827761412249771</v>
+        <v>0.6011933845616397</v>
       </c>
       <c r="H21">
-        <v>0.7644349749951687</v>
+        <v>0.3976486250736571</v>
       </c>
       <c r="I21">
-        <v>0.6023789053591955</v>
+        <v>0.3411890395355783</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4807327829884969</v>
+        <v>1.524003420489578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.347113771015124</v>
+        <v>1.019774336993201</v>
       </c>
       <c r="N21">
-        <v>1.484721959414914</v>
+        <v>0.5756079478844534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4733791729411507</v>
+        <v>1.46166554449627</v>
       </c>
       <c r="C22">
-        <v>0.07724004608712676</v>
+        <v>0.262330331666135</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2186443960874129</v>
+        <v>0.5956250291943661</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.6854296547511893</v>
+        <v>0.6298140685310614</v>
       </c>
       <c r="H22">
-        <v>0.7625504341119296</v>
+        <v>0.4053162380771056</v>
       </c>
       <c r="I22">
-        <v>0.6004837496867594</v>
+        <v>0.3474209962201655</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.513520082653713</v>
+        <v>1.640675483346314</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3682151795337703</v>
+        <v>1.100662998231684</v>
       </c>
       <c r="N22">
-        <v>1.471467041918403</v>
+        <v>0.5430732178266009</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4577781790568736</v>
+        <v>1.406378519997219</v>
       </c>
       <c r="C23">
-        <v>0.07445664163880394</v>
+        <v>0.2521809905625076</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2128985117975333</v>
+        <v>0.5717970092534514</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.6839737060122815</v>
+        <v>0.6143525194099482</v>
       </c>
       <c r="H23">
-        <v>0.7635262856418024</v>
+        <v>0.4011262841366658</v>
       </c>
       <c r="I23">
-        <v>0.6014670271554934</v>
+        <v>0.3439918554748047</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4960181451171479</v>
+        <v>1.578295581264797</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3569442639856248</v>
+        <v>1.057365519720598</v>
       </c>
       <c r="N23">
-        <v>1.478494806494691</v>
+        <v>0.5602974396464813</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3987677814420181</v>
+        <v>1.198753624921096</v>
       </c>
       <c r="C24">
-        <v>0.06391186962643758</v>
+        <v>0.2142647054374862</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1913270243118532</v>
+        <v>0.4835714954274195</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6793303376481816</v>
+        <v>0.5596989836094792</v>
       </c>
       <c r="H24">
-        <v>0.7678800724518737</v>
+        <v>0.3873188686129367</v>
       </c>
       <c r="I24">
-        <v>0.6058098865118069</v>
+        <v>0.3331787985005974</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4297938210986842</v>
+        <v>1.344282527718718</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3144478421167349</v>
+        <v>0.8959656380552161</v>
       </c>
       <c r="N24">
-        <v>1.506134856869513</v>
+        <v>0.6285231064742796</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3352885085284072</v>
+        <v>0.9777642786887384</v>
       </c>
       <c r="C25">
-        <v>0.05253018924254604</v>
+        <v>0.1742428920217094</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1684569799475355</v>
+        <v>0.3919319891524324</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6761708571439584</v>
+        <v>0.5079862864126881</v>
       </c>
       <c r="H25">
-        <v>0.7739796178343283</v>
+        <v>0.3763354344980883</v>
       </c>
       <c r="I25">
-        <v>0.6118118320530037</v>
+        <v>0.3256285093412963</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3584999179147133</v>
+        <v>1.095626754047458</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2690110002537125</v>
+        <v>0.7263274782813198</v>
       </c>
       <c r="N25">
-        <v>1.538129492881605</v>
+        <v>0.7079831463339019</v>
       </c>
       <c r="O25">
         <v>0</v>
